--- a/biology/Zoologie/Chaerilobuthus/Chaerilobuthus.xlsx
+++ b/biology/Zoologie/Chaerilobuthus/Chaerilobuthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaerilobuthidae
 Chaerilobuthus, unique représentant de la famille des Chaerilobuthidae, est un genre fossile de scorpions.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog 20.5[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog 20.5 :
 † Chaerilobuthus birmanicus Lourenço, 2015
 † Chaerilobuthus bruckschi Lourenço, 2015
 † Chaerilobuthus complexus Lourenço &amp; Beigel, 2011
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lourenço &amp; Beigel, 2011 : « A new scorpion fossil from the Cretaceous amber of Myanmar (Burma). New phylogenetic implications. » Comptes Rendus Palevol, vol. 10, no 8, p. 635-639.</t>
         </is>
